--- a/InputTestData/DataSheet/TestData.xlsx
+++ b/InputTestData/DataSheet/TestData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="150">
   <si>
     <t>RunFlag</t>
   </si>
